--- a/Code/Results/Cases/Case_3_215/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_215/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01519034516179</v>
+        <v>1.038450854315047</v>
       </c>
       <c r="D2">
-        <v>1.030052743907899</v>
+        <v>1.041055307278392</v>
       </c>
       <c r="E2">
-        <v>1.028044953642578</v>
+        <v>1.047484124626031</v>
       </c>
       <c r="F2">
-        <v>1.035600881157749</v>
+        <v>1.059320034148477</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052699211878723</v>
+        <v>1.042305354612622</v>
       </c>
       <c r="J2">
-        <v>1.036926017641339</v>
+        <v>1.043548223093067</v>
       </c>
       <c r="K2">
-        <v>1.041108690460462</v>
+        <v>1.043835906299398</v>
       </c>
       <c r="L2">
-        <v>1.039126929428795</v>
+        <v>1.050246633662113</v>
       </c>
       <c r="M2">
-        <v>1.046585556741482</v>
+        <v>1.062049860313014</v>
       </c>
       <c r="N2">
-        <v>1.038398571523466</v>
+        <v>1.045030181266513</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019257758705407</v>
+        <v>1.039307683498232</v>
       </c>
       <c r="D3">
-        <v>1.032997085365635</v>
+        <v>1.041690810562869</v>
       </c>
       <c r="E3">
-        <v>1.031570739249203</v>
+        <v>1.048280844263789</v>
       </c>
       <c r="F3">
-        <v>1.03978694972014</v>
+        <v>1.060279266528236</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054085283087584</v>
+        <v>1.042538592217509</v>
       </c>
       <c r="J3">
-        <v>1.039236858361104</v>
+        <v>1.044050315127925</v>
       </c>
       <c r="K3">
-        <v>1.043224477438083</v>
+        <v>1.044282419196137</v>
       </c>
       <c r="L3">
-        <v>1.041814994335563</v>
+        <v>1.050855245979404</v>
       </c>
       <c r="M3">
-        <v>1.049934852675833</v>
+        <v>1.062822931938304</v>
       </c>
       <c r="N3">
-        <v>1.040712693902111</v>
+        <v>1.045532986329652</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021839293976087</v>
+        <v>1.039862585097072</v>
       </c>
       <c r="D4">
-        <v>1.034868047482009</v>
+        <v>1.042102349547758</v>
       </c>
       <c r="E4">
-        <v>1.033814005780429</v>
+        <v>1.048797213501648</v>
       </c>
       <c r="F4">
-        <v>1.042450355268654</v>
+        <v>1.060901062951296</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054955190512237</v>
+        <v>1.042688430876998</v>
       </c>
       <c r="J4">
-        <v>1.040700379145264</v>
+        <v>1.04437501694122</v>
       </c>
       <c r="K4">
-        <v>1.044563099297155</v>
+        <v>1.04457097935509</v>
       </c>
       <c r="L4">
-        <v>1.043520760516733</v>
+        <v>1.051249240390243</v>
       </c>
       <c r="M4">
-        <v>1.052062077631583</v>
+        <v>1.063323644612872</v>
       </c>
       <c r="N4">
-        <v>1.042178293053652</v>
+        <v>1.045858149256766</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022912900404182</v>
+        <v>1.040095978204457</v>
       </c>
       <c r="D5">
-        <v>1.035646633444967</v>
+        <v>1.042275436943798</v>
       </c>
       <c r="E5">
-        <v>1.034748223598436</v>
+        <v>1.049014494198756</v>
       </c>
       <c r="F5">
-        <v>1.043559567945337</v>
+        <v>1.061162729976496</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055314577273241</v>
+        <v>1.042751163355636</v>
       </c>
       <c r="J5">
-        <v>1.041308245980823</v>
+        <v>1.044511476073568</v>
       </c>
       <c r="K5">
-        <v>1.045118753374345</v>
+        <v>1.044692201875289</v>
       </c>
       <c r="L5">
-        <v>1.044230050641006</v>
+        <v>1.051414917807071</v>
       </c>
       <c r="M5">
-        <v>1.052947073888797</v>
+        <v>1.063534258526472</v>
       </c>
       <c r="N5">
-        <v>1.042787023129841</v>
+        <v>1.045994802176733</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023092490089591</v>
+        <v>1.040135172488035</v>
       </c>
       <c r="D6">
-        <v>1.03577690070385</v>
+        <v>1.042304503513013</v>
       </c>
       <c r="E6">
-        <v>1.034904571813164</v>
+        <v>1.049050988209884</v>
       </c>
       <c r="F6">
-        <v>1.043745204871335</v>
+        <v>1.061206680442756</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05537455296168</v>
+        <v>1.042761681164768</v>
       </c>
       <c r="J6">
-        <v>1.041409881454004</v>
+        <v>1.044534385460274</v>
       </c>
       <c r="K6">
-        <v>1.045211638820597</v>
+        <v>1.044712550466389</v>
       </c>
       <c r="L6">
-        <v>1.044348691798938</v>
+        <v>1.051442738209381</v>
       </c>
       <c r="M6">
-        <v>1.05309513200344</v>
+        <v>1.063569628189262</v>
       </c>
       <c r="N6">
-        <v>1.042888802937051</v>
+        <v>1.046017744097396</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021853684920571</v>
+        <v>1.03986570326704</v>
       </c>
       <c r="D7">
-        <v>1.034878481994769</v>
+        <v>1.042104662051809</v>
       </c>
       <c r="E7">
-        <v>1.033826523258859</v>
+        <v>1.048800116036803</v>
       </c>
       <c r="F7">
-        <v>1.042465217357363</v>
+        <v>1.060904558324397</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054960017323023</v>
+        <v>1.04268927013279</v>
       </c>
       <c r="J7">
-        <v>1.040708530294928</v>
+        <v>1.044376840495086</v>
       </c>
       <c r="K7">
-        <v>1.044570551644767</v>
+        <v>1.044572599484215</v>
       </c>
       <c r="L7">
-        <v>1.043530268494476</v>
+        <v>1.051251454015934</v>
       </c>
       <c r="M7">
-        <v>1.052073939125116</v>
+        <v>1.063326458399005</v>
       </c>
       <c r="N7">
-        <v>1.042186455778884</v>
+        <v>1.045859975400287</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016575609186566</v>
+        <v>1.038740324361691</v>
       </c>
       <c r="D8">
-        <v>1.031055023804803</v>
+        <v>1.041270010151387</v>
       </c>
       <c r="E8">
-        <v>1.029244583063363</v>
+        <v>1.047753205187524</v>
       </c>
       <c r="F8">
-        <v>1.037025171332793</v>
+        <v>1.059643980605181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053173309529127</v>
+        <v>1.042384401873878</v>
       </c>
       <c r="J8">
-        <v>1.037713675912223</v>
+        <v>1.043717945126371</v>
       </c>
       <c r="K8">
-        <v>1.04183014515175</v>
+        <v>1.04398688201332</v>
       </c>
       <c r="L8">
-        <v>1.040042469371974</v>
+        <v>1.050452278675039</v>
       </c>
       <c r="M8">
-        <v>1.047725923771937</v>
+        <v>1.062311022457901</v>
       </c>
       <c r="N8">
-        <v>1.039187348359441</v>
+        <v>1.045200144324572</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006871176803905</v>
+        <v>1.036760970769249</v>
       </c>
       <c r="D9">
-        <v>1.024044793862422</v>
+        <v>1.039801813511019</v>
       </c>
       <c r="E9">
-        <v>1.020865099158142</v>
+        <v>1.045914907585024</v>
       </c>
       <c r="F9">
-        <v>1.027075840498931</v>
+        <v>1.05743124862967</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049811920037585</v>
+        <v>1.041838933530697</v>
       </c>
       <c r="J9">
-        <v>1.032183607722693</v>
+        <v>1.042555518758623</v>
       </c>
       <c r="K9">
-        <v>1.036759445111846</v>
+        <v>1.04295203895765</v>
       </c>
       <c r="L9">
-        <v>1.033628487963847</v>
+        <v>1.049045477304738</v>
       </c>
       <c r="M9">
-        <v>1.039744390612859</v>
+        <v>1.060525464097366</v>
       </c>
       <c r="N9">
-        <v>1.033649426838774</v>
+        <v>1.04403606717805</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000103251377484</v>
+        <v>1.035443979808601</v>
       </c>
       <c r="D10">
-        <v>1.019172119557369</v>
+        <v>1.038824836899029</v>
       </c>
       <c r="E10">
-        <v>1.015053734283709</v>
+        <v>1.044693838623091</v>
       </c>
       <c r="F10">
-        <v>1.020174182362575</v>
+        <v>1.055961953241809</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047418329614604</v>
+        <v>1.04146978409276</v>
       </c>
       <c r="J10">
-        <v>1.028312773350014</v>
+        <v>1.041779715791726</v>
       </c>
       <c r="K10">
-        <v>1.033203633727572</v>
+        <v>1.042260372932316</v>
       </c>
       <c r="L10">
-        <v>1.029156406210447</v>
+        <v>1.048108660024862</v>
       </c>
       <c r="M10">
-        <v>1.03418849512873</v>
+        <v>1.059337714098422</v>
       </c>
       <c r="N10">
-        <v>1.029773095437295</v>
+        <v>1.043259162481954</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9970954770179377</v>
+        <v>1.034874337449394</v>
       </c>
       <c r="D11">
-        <v>1.017011185550506</v>
+        <v>1.03840224729428</v>
       </c>
       <c r="E11">
-        <v>1.012479282022249</v>
+        <v>1.044166181224962</v>
       </c>
       <c r="F11">
-        <v>1.017116074354274</v>
+        <v>1.055327142667858</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046343396582123</v>
+        <v>1.041308642062667</v>
       </c>
       <c r="J11">
-        <v>1.026589588741367</v>
+        <v>1.041443596713364</v>
       </c>
       <c r="K11">
-        <v>1.031619271385057</v>
+        <v>1.041960468105064</v>
       </c>
       <c r="L11">
-        <v>1.027169633161533</v>
+        <v>1.047703273062502</v>
       </c>
       <c r="M11">
-        <v>1.031722267480033</v>
+        <v>1.058824045608612</v>
       </c>
       <c r="N11">
-        <v>1.028047463708851</v>
+        <v>1.042922566075946</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9959660669246011</v>
+        <v>1.034662841983486</v>
       </c>
       <c r="D12">
-        <v>1.01620050819976</v>
+        <v>1.038245347581457</v>
       </c>
       <c r="E12">
-        <v>1.011513861059008</v>
+        <v>1.043970348701412</v>
       </c>
       <c r="F12">
-        <v>1.015969159320204</v>
+        <v>1.055091558361691</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045938127948915</v>
+        <v>1.041248592461987</v>
       </c>
       <c r="J12">
-        <v>1.025942136703157</v>
+        <v>1.041318719518995</v>
       </c>
       <c r="K12">
-        <v>1.031023777304383</v>
+        <v>1.041849009797143</v>
       </c>
       <c r="L12">
-        <v>1.026423748860548</v>
+        <v>1.047552734811524</v>
       </c>
       <c r="M12">
-        <v>1.030796679791927</v>
+        <v>1.058633343146478</v>
       </c>
       <c r="N12">
-        <v>1.027399092214483</v>
+        <v>1.042797511541639</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9962088906391866</v>
+        <v>1.034708204154118</v>
       </c>
       <c r="D13">
-        <v>1.016374769459793</v>
+        <v>1.038278999959449</v>
       </c>
       <c r="E13">
-        <v>1.011721368547318</v>
+        <v>1.044012348043255</v>
       </c>
       <c r="F13">
-        <v>1.016215683091943</v>
+        <v>1.055142082347418</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046025334011628</v>
+        <v>1.041261482085038</v>
       </c>
       <c r="J13">
-        <v>1.026081356722406</v>
+        <v>1.041345507331976</v>
       </c>
       <c r="K13">
-        <v>1.03115183386409</v>
+        <v>1.041872920693238</v>
       </c>
       <c r="L13">
-        <v>1.026584107242734</v>
+        <v>1.047585023923204</v>
       </c>
       <c r="M13">
-        <v>1.030995659585864</v>
+        <v>1.058674245064044</v>
       </c>
       <c r="N13">
-        <v>1.027538509942128</v>
+        <v>1.042824337396387</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9970023718043413</v>
+        <v>1.034856853220658</v>
       </c>
       <c r="D14">
-        <v>1.016944340170511</v>
+        <v>1.038389276500549</v>
       </c>
       <c r="E14">
-        <v>1.01239966933889</v>
+        <v>1.044149990314287</v>
       </c>
       <c r="F14">
-        <v>1.01702149755157</v>
+        <v>1.055307664848873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046310020403659</v>
+        <v>1.041303682302958</v>
       </c>
       <c r="J14">
-        <v>1.026536222657789</v>
+        <v>1.041433274882055</v>
       </c>
       <c r="K14">
-        <v>1.031570191959226</v>
+        <v>1.041951256150184</v>
       </c>
       <c r="L14">
-        <v>1.027108141538744</v>
+        <v>1.04769082868973</v>
       </c>
       <c r="M14">
-        <v>1.031645954936132</v>
+        <v>1.058808280098648</v>
       </c>
       <c r="N14">
-        <v>1.027994021839314</v>
+        <v>1.042912229586453</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9974896284007989</v>
+        <v>1.034948453456423</v>
       </c>
       <c r="D15">
-        <v>1.017294199440938</v>
+        <v>1.038457230693022</v>
       </c>
       <c r="E15">
-        <v>1.012816366540565</v>
+        <v>1.044234817898954</v>
       </c>
       <c r="F15">
-        <v>1.017516512619186</v>
+        <v>1.05540971391519</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046484624840472</v>
+        <v>1.041329657528047</v>
       </c>
       <c r="J15">
-        <v>1.026815492447108</v>
+        <v>1.041487347742619</v>
       </c>
       <c r="K15">
-        <v>1.031827021104755</v>
+        <v>1.041999513253737</v>
       </c>
       <c r="L15">
-        <v>1.027429957710297</v>
+        <v>1.047756023905813</v>
       </c>
       <c r="M15">
-        <v>1.032045348340738</v>
+        <v>1.058890876389527</v>
       </c>
       <c r="N15">
-        <v>1.028273688223766</v>
+        <v>1.042966379236682</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000301191242969</v>
+        <v>1.035481798350725</v>
       </c>
       <c r="D16">
-        <v>1.019314429595804</v>
+        <v>1.038852892350344</v>
       </c>
       <c r="E16">
-        <v>1.015223332390266</v>
+        <v>1.044728880264959</v>
       </c>
       <c r="F16">
-        <v>1.020375626726324</v>
+        <v>1.056004113252341</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047488840959775</v>
+        <v>1.041480451274757</v>
       </c>
       <c r="J16">
-        <v>1.028426117313257</v>
+        <v>1.041802018974816</v>
       </c>
       <c r="K16">
-        <v>1.033307817944374</v>
+        <v>1.042280268109671</v>
       </c>
       <c r="L16">
-        <v>1.029287172258606</v>
+        <v>1.04813556983358</v>
       </c>
       <c r="M16">
-        <v>1.034350859735766</v>
+        <v>1.059371818090562</v>
       </c>
       <c r="N16">
-        <v>1.029886600361967</v>
+        <v>1.043281497338122</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002043733539259</v>
+        <v>1.035816519411768</v>
       </c>
       <c r="D17">
-        <v>1.020567767631967</v>
+        <v>1.039101201463792</v>
       </c>
       <c r="E17">
-        <v>1.016717311926834</v>
+        <v>1.045039081106495</v>
       </c>
       <c r="F17">
-        <v>1.022150060609987</v>
+        <v>1.056377341326158</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048108311104238</v>
+        <v>1.041574693232454</v>
       </c>
       <c r="J17">
-        <v>1.029423599998779</v>
+        <v>1.041999353515967</v>
       </c>
       <c r="K17">
-        <v>1.034224530365142</v>
+        <v>1.042456269541674</v>
       </c>
       <c r="L17">
-        <v>1.030438440497075</v>
+        <v>1.048373719780792</v>
       </c>
       <c r="M17">
-        <v>1.035780554046985</v>
+        <v>1.059673671184016</v>
       </c>
       <c r="N17">
-        <v>1.030885499587314</v>
+        <v>1.043479112116956</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003052720164513</v>
+        <v>1.036011816599787</v>
       </c>
       <c r="D18">
-        <v>1.021293918700011</v>
+        <v>1.039246079058264</v>
       </c>
       <c r="E18">
-        <v>1.017583149953076</v>
+        <v>1.045220119478088</v>
       </c>
       <c r="F18">
-        <v>1.023178375951881</v>
+        <v>1.056595174303212</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048465938268559</v>
+        <v>1.041629537696426</v>
       </c>
       <c r="J18">
-        <v>1.030000893420839</v>
+        <v>1.042114436883933</v>
       </c>
       <c r="K18">
-        <v>1.034754942744347</v>
+        <v>1.04255888867327</v>
       </c>
       <c r="L18">
-        <v>1.031105123955743</v>
+        <v>1.048512653721881</v>
       </c>
       <c r="M18">
-        <v>1.036608664936781</v>
+        <v>1.059849798165522</v>
       </c>
       <c r="N18">
-        <v>1.031463612832251</v>
+        <v>1.043594358916504</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003395519106867</v>
+        <v>1.03607841803774</v>
       </c>
       <c r="D19">
-        <v>1.021540696436903</v>
+        <v>1.0392954858335</v>
       </c>
       <c r="E19">
-        <v>1.017877445280326</v>
+        <v>1.04528186638446</v>
       </c>
       <c r="F19">
-        <v>1.023527887232439</v>
+        <v>1.056669472627141</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048587258519011</v>
+        <v>1.041648216970645</v>
       </c>
       <c r="J19">
-        <v>1.030196977765278</v>
+        <v>1.04215367416068</v>
       </c>
       <c r="K19">
-        <v>1.034935080137952</v>
+        <v>1.042593872406653</v>
       </c>
       <c r="L19">
-        <v>1.031331636401574</v>
+        <v>1.048560030824633</v>
       </c>
       <c r="M19">
-        <v>1.03689005734294</v>
+        <v>1.059909863247025</v>
       </c>
       <c r="N19">
-        <v>1.03165997563895</v>
+        <v>1.043633651914686</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001857545699645</v>
+        <v>1.03578060078762</v>
       </c>
       <c r="D20">
-        <v>1.020433805545484</v>
+        <v>1.039074555777243</v>
       </c>
       <c r="E20">
-        <v>1.016557601709846</v>
+        <v>1.045005788777764</v>
       </c>
       <c r="F20">
-        <v>1.021960375547459</v>
+        <v>1.056337283473473</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048042231914702</v>
+        <v>1.041564594914945</v>
       </c>
       <c r="J20">
-        <v>1.029317049392107</v>
+        <v>1.04197818329584</v>
       </c>
       <c r="K20">
-        <v>1.03412662154896</v>
+        <v>1.042437390333898</v>
       </c>
       <c r="L20">
-        <v>1.030315422526097</v>
+        <v>1.048348165939135</v>
       </c>
       <c r="M20">
-        <v>1.035627764927012</v>
+        <v>1.059641278865144</v>
       </c>
       <c r="N20">
-        <v>1.03077879766656</v>
+        <v>1.043457911832688</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9967690527555377</v>
+        <v>1.03481307713983</v>
       </c>
       <c r="D21">
-        <v>1.01677683977312</v>
+        <v>1.038356800893298</v>
       </c>
       <c r="E21">
-        <v>1.012200182937852</v>
+        <v>1.044109453585299</v>
       </c>
       <c r="F21">
-        <v>1.016784513319986</v>
+        <v>1.055258899046866</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046226354460137</v>
+        <v>1.04129126074779</v>
       </c>
       <c r="J21">
-        <v>1.026402482414632</v>
+        <v>1.041407430278974</v>
       </c>
       <c r="K21">
-        <v>1.031447191257705</v>
+        <v>1.041928189966148</v>
       </c>
       <c r="L21">
-        <v>1.026954047698482</v>
+        <v>1.047659670694288</v>
       </c>
       <c r="M21">
-        <v>1.031454725601504</v>
+        <v>1.05876880743535</v>
       </c>
       <c r="N21">
-        <v>1.027860091669671</v>
+        <v>1.042886348281072</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9934988760334612</v>
+        <v>1.034205307364727</v>
       </c>
       <c r="D22">
-        <v>1.014431030248096</v>
+        <v>1.037905919240487</v>
       </c>
       <c r="E22">
-        <v>1.009407303492508</v>
+        <v>1.043546835539509</v>
       </c>
       <c r="F22">
-        <v>1.013466325903784</v>
+        <v>1.054582106856304</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04504986782585</v>
+        <v>1.041118281044436</v>
       </c>
       <c r="J22">
-        <v>1.024527085862837</v>
+        <v>1.041048416063657</v>
       </c>
       <c r="K22">
-        <v>1.029721925820859</v>
+        <v>1.041607687155015</v>
       </c>
       <c r="L22">
-        <v>1.024794675372809</v>
+        <v>1.047227021463325</v>
       </c>
       <c r="M22">
-        <v>1.028775650682109</v>
+        <v>1.05822081130108</v>
       </c>
       <c r="N22">
-        <v>1.025982031839662</v>
+        <v>1.042526824224389</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9952393794700228</v>
+        <v>1.034527444946681</v>
       </c>
       <c r="D23">
-        <v>1.015679118781075</v>
+        <v>1.038144901744029</v>
       </c>
       <c r="E23">
-        <v>1.0108930536646</v>
+        <v>1.043845000032211</v>
       </c>
       <c r="F23">
-        <v>1.015231605571408</v>
+        <v>1.054940769969516</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045676914416241</v>
+        <v>1.041210087128492</v>
       </c>
       <c r="J23">
-        <v>1.02552544345711</v>
+        <v>1.041238750997883</v>
       </c>
       <c r="K23">
-        <v>1.030640468225039</v>
+        <v>1.041777624400652</v>
       </c>
       <c r="L23">
-        <v>1.025943875677265</v>
+        <v>1.047456354295444</v>
       </c>
       <c r="M23">
-        <v>1.030201274363539</v>
+        <v>1.058511260725942</v>
       </c>
       <c r="N23">
-        <v>1.026981807216232</v>
+        <v>1.042717429456054</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001941698822909</v>
+        <v>1.03579683068236</v>
       </c>
       <c r="D24">
-        <v>1.020494352363376</v>
+        <v>1.039086595683102</v>
       </c>
       <c r="E24">
-        <v>1.016629785079952</v>
+        <v>1.045020831828561</v>
       </c>
       <c r="F24">
-        <v>1.022046106673032</v>
+        <v>1.056355383474791</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048072101672971</v>
+        <v>1.041569158297108</v>
       </c>
       <c r="J24">
-        <v>1.029365208974813</v>
+        <v>1.04198774926444</v>
       </c>
       <c r="K24">
-        <v>1.034170875567223</v>
+        <v>1.042445921157504</v>
       </c>
       <c r="L24">
-        <v>1.030371023958798</v>
+        <v>1.048359712542802</v>
       </c>
       <c r="M24">
-        <v>1.035696821663499</v>
+        <v>1.059655915370863</v>
       </c>
       <c r="N24">
-        <v>1.030827025641397</v>
+        <v>1.043467491386061</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009430520434562</v>
+        <v>1.037272232956973</v>
       </c>
       <c r="D25">
-        <v>1.025891004304598</v>
+        <v>1.040181063527504</v>
       </c>
       <c r="E25">
-        <v>1.02306955524052</v>
+        <v>1.046389372100772</v>
       </c>
       <c r="F25">
-        <v>1.029693470410352</v>
+        <v>1.058002267426352</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050707099623386</v>
+        <v>1.041980923494212</v>
       </c>
       <c r="J25">
-        <v>1.033644625272494</v>
+        <v>1.042856189004508</v>
       </c>
       <c r="K25">
-        <v>1.038100264277003</v>
+        <v>1.043219887728785</v>
       </c>
       <c r="L25">
-        <v>1.035319998673302</v>
+        <v>1.049408989693935</v>
       </c>
       <c r="M25">
-        <v>1.041847679797359</v>
+        <v>1.060986617982911</v>
       </c>
       <c r="N25">
-        <v>1.035112519201077</v>
+        <v>1.044337164410171</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_215/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_215/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038450854315047</v>
+        <v>1.01519034516179</v>
       </c>
       <c r="D2">
-        <v>1.041055307278392</v>
+        <v>1.030052743907898</v>
       </c>
       <c r="E2">
-        <v>1.047484124626031</v>
+        <v>1.028044953642577</v>
       </c>
       <c r="F2">
-        <v>1.059320034148477</v>
+        <v>1.035600881157748</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042305354612622</v>
+        <v>1.052699211878723</v>
       </c>
       <c r="J2">
-        <v>1.043548223093067</v>
+        <v>1.036926017641338</v>
       </c>
       <c r="K2">
-        <v>1.043835906299398</v>
+        <v>1.041108690460462</v>
       </c>
       <c r="L2">
-        <v>1.050246633662113</v>
+        <v>1.039126929428795</v>
       </c>
       <c r="M2">
-        <v>1.062049860313014</v>
+        <v>1.046585556741482</v>
       </c>
       <c r="N2">
-        <v>1.045030181266513</v>
+        <v>1.038398571523466</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039307683498232</v>
+        <v>1.019257758705407</v>
       </c>
       <c r="D3">
-        <v>1.041690810562869</v>
+        <v>1.032997085365635</v>
       </c>
       <c r="E3">
-        <v>1.048280844263789</v>
+        <v>1.031570739249203</v>
       </c>
       <c r="F3">
-        <v>1.060279266528236</v>
+        <v>1.03978694972014</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042538592217509</v>
+        <v>1.054085283087584</v>
       </c>
       <c r="J3">
-        <v>1.044050315127925</v>
+        <v>1.039236858361104</v>
       </c>
       <c r="K3">
-        <v>1.044282419196137</v>
+        <v>1.043224477438083</v>
       </c>
       <c r="L3">
-        <v>1.050855245979404</v>
+        <v>1.041814994335562</v>
       </c>
       <c r="M3">
-        <v>1.062822931938304</v>
+        <v>1.049934852675832</v>
       </c>
       <c r="N3">
-        <v>1.045532986329652</v>
+        <v>1.040712693902111</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039862585097072</v>
+        <v>1.021839293976086</v>
       </c>
       <c r="D4">
-        <v>1.042102349547758</v>
+        <v>1.034868047482009</v>
       </c>
       <c r="E4">
-        <v>1.048797213501648</v>
+        <v>1.033814005780428</v>
       </c>
       <c r="F4">
-        <v>1.060901062951296</v>
+        <v>1.042450355268653</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042688430876998</v>
+        <v>1.054955190512237</v>
       </c>
       <c r="J4">
-        <v>1.04437501694122</v>
+        <v>1.040700379145264</v>
       </c>
       <c r="K4">
-        <v>1.04457097935509</v>
+        <v>1.044563099297155</v>
       </c>
       <c r="L4">
-        <v>1.051249240390243</v>
+        <v>1.043520760516732</v>
       </c>
       <c r="M4">
-        <v>1.063323644612872</v>
+        <v>1.052062077631582</v>
       </c>
       <c r="N4">
-        <v>1.045858149256766</v>
+        <v>1.042178293053652</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040095978204457</v>
+        <v>1.022912900404181</v>
       </c>
       <c r="D5">
-        <v>1.042275436943798</v>
+        <v>1.035646633444967</v>
       </c>
       <c r="E5">
-        <v>1.049014494198756</v>
+        <v>1.034748223598436</v>
       </c>
       <c r="F5">
-        <v>1.061162729976496</v>
+        <v>1.043559567945337</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042751163355636</v>
+        <v>1.055314577273241</v>
       </c>
       <c r="J5">
-        <v>1.044511476073568</v>
+        <v>1.041308245980823</v>
       </c>
       <c r="K5">
-        <v>1.044692201875289</v>
+        <v>1.045118753374345</v>
       </c>
       <c r="L5">
-        <v>1.051414917807071</v>
+        <v>1.044230050641005</v>
       </c>
       <c r="M5">
-        <v>1.063534258526472</v>
+        <v>1.052947073888797</v>
       </c>
       <c r="N5">
-        <v>1.045994802176733</v>
+        <v>1.042787023129841</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040135172488035</v>
+        <v>1.023092490089591</v>
       </c>
       <c r="D6">
-        <v>1.042304503513013</v>
+        <v>1.03577690070385</v>
       </c>
       <c r="E6">
-        <v>1.049050988209884</v>
+        <v>1.034904571813164</v>
       </c>
       <c r="F6">
-        <v>1.061206680442756</v>
+        <v>1.043745204871336</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042761681164768</v>
+        <v>1.055374552961681</v>
       </c>
       <c r="J6">
-        <v>1.044534385460274</v>
+        <v>1.041409881454004</v>
       </c>
       <c r="K6">
-        <v>1.044712550466389</v>
+        <v>1.045211638820597</v>
       </c>
       <c r="L6">
-        <v>1.051442738209381</v>
+        <v>1.044348691798938</v>
       </c>
       <c r="M6">
-        <v>1.063569628189262</v>
+        <v>1.05309513200344</v>
       </c>
       <c r="N6">
-        <v>1.046017744097396</v>
+        <v>1.042888802937052</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03986570326704</v>
+        <v>1.021853684920571</v>
       </c>
       <c r="D7">
-        <v>1.042104662051809</v>
+        <v>1.03487848199477</v>
       </c>
       <c r="E7">
-        <v>1.048800116036803</v>
+        <v>1.033826523258859</v>
       </c>
       <c r="F7">
-        <v>1.060904558324397</v>
+        <v>1.042465217357363</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04268927013279</v>
+        <v>1.054960017323023</v>
       </c>
       <c r="J7">
-        <v>1.044376840495086</v>
+        <v>1.040708530294928</v>
       </c>
       <c r="K7">
-        <v>1.044572599484215</v>
+        <v>1.044570551644767</v>
       </c>
       <c r="L7">
-        <v>1.051251454015934</v>
+        <v>1.043530268494476</v>
       </c>
       <c r="M7">
-        <v>1.063326458399005</v>
+        <v>1.052073939125116</v>
       </c>
       <c r="N7">
-        <v>1.045859975400287</v>
+        <v>1.042186455778884</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038740324361691</v>
+        <v>1.016575609186565</v>
       </c>
       <c r="D8">
-        <v>1.041270010151387</v>
+        <v>1.031055023804802</v>
       </c>
       <c r="E8">
-        <v>1.047753205187524</v>
+        <v>1.029244583063362</v>
       </c>
       <c r="F8">
-        <v>1.059643980605181</v>
+        <v>1.037025171332792</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042384401873878</v>
+        <v>1.053173309529126</v>
       </c>
       <c r="J8">
-        <v>1.043717945126371</v>
+        <v>1.037713675912222</v>
       </c>
       <c r="K8">
-        <v>1.04398688201332</v>
+        <v>1.041830145151748</v>
       </c>
       <c r="L8">
-        <v>1.050452278675039</v>
+        <v>1.040042469371974</v>
       </c>
       <c r="M8">
-        <v>1.062311022457901</v>
+        <v>1.047725923771936</v>
       </c>
       <c r="N8">
-        <v>1.045200144324572</v>
+        <v>1.03918734835944</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036760970769249</v>
+        <v>1.006871176803904</v>
       </c>
       <c r="D9">
-        <v>1.039801813511019</v>
+        <v>1.024044793862422</v>
       </c>
       <c r="E9">
-        <v>1.045914907585024</v>
+        <v>1.020865099158141</v>
       </c>
       <c r="F9">
-        <v>1.05743124862967</v>
+        <v>1.027075840498931</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041838933530697</v>
+        <v>1.049811920037585</v>
       </c>
       <c r="J9">
-        <v>1.042555518758623</v>
+        <v>1.032183607722693</v>
       </c>
       <c r="K9">
-        <v>1.04295203895765</v>
+        <v>1.036759445111846</v>
       </c>
       <c r="L9">
-        <v>1.049045477304738</v>
+        <v>1.033628487963846</v>
       </c>
       <c r="M9">
-        <v>1.060525464097366</v>
+        <v>1.039744390612859</v>
       </c>
       <c r="N9">
-        <v>1.04403606717805</v>
+        <v>1.033649426838773</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035443979808601</v>
+        <v>1.000103251377483</v>
       </c>
       <c r="D10">
-        <v>1.038824836899029</v>
+        <v>1.019172119557369</v>
       </c>
       <c r="E10">
-        <v>1.044693838623091</v>
+        <v>1.015053734283709</v>
       </c>
       <c r="F10">
-        <v>1.055961953241809</v>
+        <v>1.020174182362574</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04146978409276</v>
+        <v>1.047418329614604</v>
       </c>
       <c r="J10">
-        <v>1.041779715791726</v>
+        <v>1.028312773350014</v>
       </c>
       <c r="K10">
-        <v>1.042260372932316</v>
+        <v>1.033203633727572</v>
       </c>
       <c r="L10">
-        <v>1.048108660024862</v>
+        <v>1.029156406210447</v>
       </c>
       <c r="M10">
-        <v>1.059337714098422</v>
+        <v>1.03418849512873</v>
       </c>
       <c r="N10">
-        <v>1.043259162481954</v>
+        <v>1.029773095437295</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034874337449394</v>
+        <v>0.9970954770179373</v>
       </c>
       <c r="D11">
-        <v>1.03840224729428</v>
+        <v>1.017011185550505</v>
       </c>
       <c r="E11">
-        <v>1.044166181224962</v>
+        <v>1.012479282022249</v>
       </c>
       <c r="F11">
-        <v>1.055327142667858</v>
+        <v>1.017116074354274</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041308642062667</v>
+        <v>1.046343396582123</v>
       </c>
       <c r="J11">
-        <v>1.041443596713364</v>
+        <v>1.026589588741366</v>
       </c>
       <c r="K11">
-        <v>1.041960468105064</v>
+        <v>1.031619271385056</v>
       </c>
       <c r="L11">
-        <v>1.047703273062502</v>
+        <v>1.027169633161532</v>
       </c>
       <c r="M11">
-        <v>1.058824045608612</v>
+        <v>1.031722267480032</v>
       </c>
       <c r="N11">
-        <v>1.042922566075946</v>
+        <v>1.028047463708851</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034662841983486</v>
+        <v>0.9959660669246012</v>
       </c>
       <c r="D12">
-        <v>1.038245347581457</v>
+        <v>1.01620050819976</v>
       </c>
       <c r="E12">
-        <v>1.043970348701412</v>
+        <v>1.011513861059008</v>
       </c>
       <c r="F12">
-        <v>1.055091558361691</v>
+        <v>1.015969159320204</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041248592461987</v>
+        <v>1.045938127948915</v>
       </c>
       <c r="J12">
-        <v>1.041318719518995</v>
+        <v>1.025942136703157</v>
       </c>
       <c r="K12">
-        <v>1.041849009797143</v>
+        <v>1.031023777304383</v>
       </c>
       <c r="L12">
-        <v>1.047552734811524</v>
+        <v>1.026423748860549</v>
       </c>
       <c r="M12">
-        <v>1.058633343146478</v>
+        <v>1.030796679791927</v>
       </c>
       <c r="N12">
-        <v>1.042797511541639</v>
+        <v>1.027399092214483</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034708204154118</v>
+        <v>0.9962088906391861</v>
       </c>
       <c r="D13">
-        <v>1.038278999959449</v>
+        <v>1.016374769459792</v>
       </c>
       <c r="E13">
-        <v>1.044012348043255</v>
+        <v>1.011721368547317</v>
       </c>
       <c r="F13">
-        <v>1.055142082347418</v>
+        <v>1.016215683091942</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041261482085038</v>
+        <v>1.046025334011628</v>
       </c>
       <c r="J13">
-        <v>1.041345507331976</v>
+        <v>1.026081356722405</v>
       </c>
       <c r="K13">
-        <v>1.041872920693238</v>
+        <v>1.03115183386409</v>
       </c>
       <c r="L13">
-        <v>1.047585023923204</v>
+        <v>1.026584107242733</v>
       </c>
       <c r="M13">
-        <v>1.058674245064044</v>
+        <v>1.030995659585863</v>
       </c>
       <c r="N13">
-        <v>1.042824337396387</v>
+        <v>1.027538509942128</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034856853220658</v>
+        <v>0.997002371804341</v>
       </c>
       <c r="D14">
-        <v>1.038389276500549</v>
+        <v>1.01694434017051</v>
       </c>
       <c r="E14">
-        <v>1.044149990314287</v>
+        <v>1.01239966933889</v>
       </c>
       <c r="F14">
-        <v>1.055307664848873</v>
+        <v>1.01702149755157</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041303682302958</v>
+        <v>1.046310020403659</v>
       </c>
       <c r="J14">
-        <v>1.041433274882055</v>
+        <v>1.026536222657789</v>
       </c>
       <c r="K14">
-        <v>1.041951256150184</v>
+        <v>1.031570191959226</v>
       </c>
       <c r="L14">
-        <v>1.04769082868973</v>
+        <v>1.027108141538744</v>
       </c>
       <c r="M14">
-        <v>1.058808280098648</v>
+        <v>1.031645954936131</v>
       </c>
       <c r="N14">
-        <v>1.042912229586453</v>
+        <v>1.027994021839314</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034948453456423</v>
+        <v>0.9974896284007981</v>
       </c>
       <c r="D15">
-        <v>1.038457230693022</v>
+        <v>1.017294199440937</v>
       </c>
       <c r="E15">
-        <v>1.044234817898954</v>
+        <v>1.012816366540564</v>
       </c>
       <c r="F15">
-        <v>1.05540971391519</v>
+        <v>1.017516512619185</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041329657528047</v>
+        <v>1.046484624840472</v>
       </c>
       <c r="J15">
-        <v>1.041487347742619</v>
+        <v>1.026815492447107</v>
       </c>
       <c r="K15">
-        <v>1.041999513253737</v>
+        <v>1.031827021104754</v>
       </c>
       <c r="L15">
-        <v>1.047756023905813</v>
+        <v>1.027429957710297</v>
       </c>
       <c r="M15">
-        <v>1.058890876389527</v>
+        <v>1.032045348340737</v>
       </c>
       <c r="N15">
-        <v>1.042966379236682</v>
+        <v>1.028273688223765</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035481798350725</v>
+        <v>1.00030119124297</v>
       </c>
       <c r="D16">
-        <v>1.038852892350344</v>
+        <v>1.019314429595805</v>
       </c>
       <c r="E16">
-        <v>1.044728880264959</v>
+        <v>1.015223332390266</v>
       </c>
       <c r="F16">
-        <v>1.056004113252341</v>
+        <v>1.020375626726325</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041480451274757</v>
+        <v>1.047488840959775</v>
       </c>
       <c r="J16">
-        <v>1.041802018974816</v>
+        <v>1.028426117313258</v>
       </c>
       <c r="K16">
-        <v>1.042280268109671</v>
+        <v>1.033307817944374</v>
       </c>
       <c r="L16">
-        <v>1.04813556983358</v>
+        <v>1.029287172258606</v>
       </c>
       <c r="M16">
-        <v>1.059371818090562</v>
+        <v>1.034350859735766</v>
       </c>
       <c r="N16">
-        <v>1.043281497338122</v>
+        <v>1.029886600361967</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035816519411768</v>
+        <v>1.00204373353926</v>
       </c>
       <c r="D17">
-        <v>1.039101201463792</v>
+        <v>1.020567767631967</v>
       </c>
       <c r="E17">
-        <v>1.045039081106495</v>
+        <v>1.016717311926834</v>
       </c>
       <c r="F17">
-        <v>1.056377341326158</v>
+        <v>1.022150060609987</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041574693232454</v>
+        <v>1.048108311104239</v>
       </c>
       <c r="J17">
-        <v>1.041999353515967</v>
+        <v>1.029423599998779</v>
       </c>
       <c r="K17">
-        <v>1.042456269541674</v>
+        <v>1.034224530365142</v>
       </c>
       <c r="L17">
-        <v>1.048373719780792</v>
+        <v>1.030438440497075</v>
       </c>
       <c r="M17">
-        <v>1.059673671184016</v>
+        <v>1.035780554046986</v>
       </c>
       <c r="N17">
-        <v>1.043479112116956</v>
+        <v>1.030885499587314</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036011816599787</v>
+        <v>1.003052720164512</v>
       </c>
       <c r="D18">
-        <v>1.039246079058264</v>
+        <v>1.021293918700011</v>
       </c>
       <c r="E18">
-        <v>1.045220119478088</v>
+        <v>1.017583149953076</v>
       </c>
       <c r="F18">
-        <v>1.056595174303212</v>
+        <v>1.02317837595188</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041629537696426</v>
+        <v>1.048465938268558</v>
       </c>
       <c r="J18">
-        <v>1.042114436883933</v>
+        <v>1.030000893420839</v>
       </c>
       <c r="K18">
-        <v>1.04255888867327</v>
+        <v>1.034754942744346</v>
       </c>
       <c r="L18">
-        <v>1.048512653721881</v>
+        <v>1.031105123955742</v>
       </c>
       <c r="M18">
-        <v>1.059849798165522</v>
+        <v>1.03660866493678</v>
       </c>
       <c r="N18">
-        <v>1.043594358916504</v>
+        <v>1.03146361283225</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03607841803774</v>
+        <v>1.003395519106868</v>
       </c>
       <c r="D19">
-        <v>1.0392954858335</v>
+        <v>1.021540696436904</v>
       </c>
       <c r="E19">
-        <v>1.04528186638446</v>
+        <v>1.017877445280327</v>
       </c>
       <c r="F19">
-        <v>1.056669472627141</v>
+        <v>1.02352788723244</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041648216970645</v>
+        <v>1.048587258519011</v>
       </c>
       <c r="J19">
-        <v>1.04215367416068</v>
+        <v>1.030196977765279</v>
       </c>
       <c r="K19">
-        <v>1.042593872406653</v>
+        <v>1.034935080137952</v>
       </c>
       <c r="L19">
-        <v>1.048560030824633</v>
+        <v>1.031331636401575</v>
       </c>
       <c r="M19">
-        <v>1.059909863247025</v>
+        <v>1.036890057342942</v>
       </c>
       <c r="N19">
-        <v>1.043633651914686</v>
+        <v>1.031659975638951</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03578060078762</v>
+        <v>1.001857545699643</v>
       </c>
       <c r="D20">
-        <v>1.039074555777243</v>
+        <v>1.020433805545482</v>
       </c>
       <c r="E20">
-        <v>1.045005788777764</v>
+        <v>1.016557601709845</v>
       </c>
       <c r="F20">
-        <v>1.056337283473473</v>
+        <v>1.021960375547457</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041564594914945</v>
+        <v>1.048042231914702</v>
       </c>
       <c r="J20">
-        <v>1.04197818329584</v>
+        <v>1.029317049392106</v>
       </c>
       <c r="K20">
-        <v>1.042437390333898</v>
+        <v>1.034126621548959</v>
       </c>
       <c r="L20">
-        <v>1.048348165939135</v>
+        <v>1.030315422526095</v>
       </c>
       <c r="M20">
-        <v>1.059641278865144</v>
+        <v>1.03562776492701</v>
       </c>
       <c r="N20">
-        <v>1.043457911832688</v>
+        <v>1.030778797666559</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03481307713983</v>
+        <v>0.9967690527555368</v>
       </c>
       <c r="D21">
-        <v>1.038356800893298</v>
+        <v>1.01677683977312</v>
       </c>
       <c r="E21">
-        <v>1.044109453585299</v>
+        <v>1.012200182937851</v>
       </c>
       <c r="F21">
-        <v>1.055258899046866</v>
+        <v>1.016784513319985</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04129126074779</v>
+        <v>1.046226354460137</v>
       </c>
       <c r="J21">
-        <v>1.041407430278974</v>
+        <v>1.026402482414631</v>
       </c>
       <c r="K21">
-        <v>1.041928189966148</v>
+        <v>1.031447191257705</v>
       </c>
       <c r="L21">
-        <v>1.047659670694288</v>
+        <v>1.026954047698482</v>
       </c>
       <c r="M21">
-        <v>1.05876880743535</v>
+        <v>1.031454725601503</v>
       </c>
       <c r="N21">
-        <v>1.042886348281072</v>
+        <v>1.027860091669671</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034205307364727</v>
+        <v>0.9934988760334613</v>
       </c>
       <c r="D22">
-        <v>1.037905919240487</v>
+        <v>1.014431030248096</v>
       </c>
       <c r="E22">
-        <v>1.043546835539509</v>
+        <v>1.009407303492508</v>
       </c>
       <c r="F22">
-        <v>1.054582106856304</v>
+        <v>1.013466325903785</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041118281044436</v>
+        <v>1.04504986782585</v>
       </c>
       <c r="J22">
-        <v>1.041048416063657</v>
+        <v>1.024527085862837</v>
       </c>
       <c r="K22">
-        <v>1.041607687155015</v>
+        <v>1.029721925820859</v>
       </c>
       <c r="L22">
-        <v>1.047227021463325</v>
+        <v>1.024794675372809</v>
       </c>
       <c r="M22">
-        <v>1.05822081130108</v>
+        <v>1.028775650682109</v>
       </c>
       <c r="N22">
-        <v>1.042526824224389</v>
+        <v>1.025982031839662</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034527444946681</v>
+        <v>0.9952393794700229</v>
       </c>
       <c r="D23">
-        <v>1.038144901744029</v>
+        <v>1.015679118781075</v>
       </c>
       <c r="E23">
-        <v>1.043845000032211</v>
+        <v>1.010893053664599</v>
       </c>
       <c r="F23">
-        <v>1.054940769969516</v>
+        <v>1.015231605571408</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041210087128492</v>
+        <v>1.04567691441624</v>
       </c>
       <c r="J23">
-        <v>1.041238750997883</v>
+        <v>1.02552544345711</v>
       </c>
       <c r="K23">
-        <v>1.041777624400652</v>
+        <v>1.030640468225039</v>
       </c>
       <c r="L23">
-        <v>1.047456354295444</v>
+        <v>1.025943875677265</v>
       </c>
       <c r="M23">
-        <v>1.058511260725942</v>
+        <v>1.030201274363538</v>
       </c>
       <c r="N23">
-        <v>1.042717429456054</v>
+        <v>1.026981807216232</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03579683068236</v>
+        <v>1.00194169882291</v>
       </c>
       <c r="D24">
-        <v>1.039086595683102</v>
+        <v>1.020494352363377</v>
       </c>
       <c r="E24">
-        <v>1.045020831828561</v>
+        <v>1.016629785079952</v>
       </c>
       <c r="F24">
-        <v>1.056355383474791</v>
+        <v>1.022046106673033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041569158297108</v>
+        <v>1.048072101672972</v>
       </c>
       <c r="J24">
-        <v>1.04198774926444</v>
+        <v>1.029365208974814</v>
       </c>
       <c r="K24">
-        <v>1.042445921157504</v>
+        <v>1.034170875567224</v>
       </c>
       <c r="L24">
-        <v>1.048359712542802</v>
+        <v>1.030371023958798</v>
       </c>
       <c r="M24">
-        <v>1.059655915370863</v>
+        <v>1.0356968216635</v>
       </c>
       <c r="N24">
-        <v>1.043467491386061</v>
+        <v>1.030827025641398</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037272232956973</v>
+        <v>1.009430520434562</v>
       </c>
       <c r="D25">
-        <v>1.040181063527504</v>
+        <v>1.025891004304598</v>
       </c>
       <c r="E25">
-        <v>1.046389372100772</v>
+        <v>1.02306955524052</v>
       </c>
       <c r="F25">
-        <v>1.058002267426352</v>
+        <v>1.029693470410352</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041980923494212</v>
+        <v>1.050707099623386</v>
       </c>
       <c r="J25">
-        <v>1.042856189004508</v>
+        <v>1.033644625272494</v>
       </c>
       <c r="K25">
-        <v>1.043219887728785</v>
+        <v>1.038100264277003</v>
       </c>
       <c r="L25">
-        <v>1.049408989693935</v>
+        <v>1.035319998673302</v>
       </c>
       <c r="M25">
-        <v>1.060986617982911</v>
+        <v>1.041847679797359</v>
       </c>
       <c r="N25">
-        <v>1.044337164410171</v>
+        <v>1.035112519201077</v>
       </c>
     </row>
   </sheetData>
